--- a/src/Excel/entregable3/CuentaPagarSoles.xlsx
+++ b/src/Excel/entregable3/CuentaPagarSoles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005F3BE-090E-41C9-AC9F-BDC20C3DC216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DA8C98-D71C-4A8C-B552-10D91C6C8C37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-80" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CuentaPagarSoles" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>usuario</t>
   </si>
@@ -42,25 +42,34 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>SCISNEROSC1</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>14 abr. 2023, 10:50:28</t>
-  </si>
-  <si>
-    <t>14 abr. 2023, 10:57:02</t>
-  </si>
-  <si>
-    <t>14 abr. 2023, 10:58:58</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
     <t>14 abr. 2023, 11:00:25</t>
+  </si>
+  <si>
+    <t>cuenta</t>
+  </si>
+  <si>
+    <t>monto</t>
+  </si>
+  <si>
+    <t>Transaccion</t>
+  </si>
+  <si>
+    <t>1010830539</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TT23226WZV2P </t>
+  </si>
+  <si>
+    <t>14 ago. 2023, 14:33:34</t>
   </si>
 </sst>
 </file>
@@ -394,45 +403,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="15.1796875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="7.1796875" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
